--- a/biology/Biochimie/Tagatose/Tagatose.xlsx
+++ b/biology/Biochimie/Tagatose/Tagatose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tagatose (galactulose) est un cétohexose (un hexose du type cétose), c'est un ose constitué d’une chaîne de 5 éléments carbone ainsi que d’une fonction cétone.
@@ -512,11 +524,13 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le D-tagatose est un épimere du D-fructose en C-4. Sa formule chimique est C6H12O6. 
 Un désoxyose du tagatose est le fuculose.
-Dans l'eau à 27 °C, la forme isomère prédominante du D-tagatose est la forme α-D-tagatopyranose (98 %)[3].
+Dans l'eau à 27 °C, la forme isomère prédominante du D-tagatose est la forme α-D-tagatopyranose (98 %).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le D-tagatose a été découvert par Gilbert Levin en 1926. 
 Le tagatose est naturellement présent dans les produits laitiers sous sa configuration D.
@@ -577,12 +593,14 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La digestion du tagatose par l'organisme diffère de celle du saccharose et a un effet moindre sur la concentration du glucose et de l'insuline dans le sang.
 Il apporte 38 % moins de calories que les autres sucres.
-C'est un sucre prébiotique[4].
-Son pouvoir sucrant est de 75-92 % comparé au sucre de table (à poids égal)[5].</t>
+C'est un sucre prébiotique.
+Son pouvoir sucrant est de 75-92 % comparé au sucre de table (à poids égal).</t>
         </is>
       </c>
     </row>
@@ -610,9 +628,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le D-tagatose est produit en deux étapes à partir du lactose. Le lactose est hydrolysé enzymatiquement par l'aspergillus oryzae lactase, pour former dans un premier temps le D-galactose. Ce dernier est ensuite isomérisé en présence de l'hydroxyde de calcium pour former le D-tagatose, après purification, neutralisation, chromatographie échangeuse d'ions et recristallisation[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le D-tagatose est produit en deux étapes à partir du lactose. Le lactose est hydrolysé enzymatiquement par l'aspergillus oryzae lactase, pour former dans un premier temps le D-galactose. Ce dernier est ensuite isomérisé en présence de l'hydroxyde de calcium pour former le D-tagatose, après purification, neutralisation, chromatographie échangeuse d'ions et recristallisation,.
 </t>
         </is>
       </c>
@@ -641,10 +661,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tagatose est reconnu GRAS par la FAO/OMS depuis 2001[5]. Il est utilisé dans l'industrie alimentaire comme édulcorant, humectant, texturant, épaississant, agent de charge[6]. 
-Son usage est limité à 1 % dans les boissons et de 10 à 60 % suivant les autres applications[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tagatose est reconnu GRAS par la FAO/OMS depuis 2001. Il est utilisé dans l'industrie alimentaire comme édulcorant, humectant, texturant, épaississant, agent de charge. 
+Son usage est limité à 1 % dans les boissons et de 10 à 60 % suivant les autres applications.
 </t>
         </is>
       </c>
